--- a/lib_testcase/com.aislend.MiniCart.xlsx
+++ b/lib_testcase/com.aislend.MiniCart.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="171">
   <si>
     <t>Action</t>
   </si>
@@ -388,21 +388,12 @@
     <t xml:space="preserve">verification of Move To Product List succesfully </t>
   </si>
   <si>
-    <t xml:space="preserve">verification of MiniCart succesfully </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AddProductfromMiniCart succesfully </t>
-  </si>
-  <si>
     <t>Remove quantity of product</t>
   </si>
   <si>
     <t>RemoveProductfromMiniCart</t>
   </si>
   <si>
-    <t xml:space="preserve">RemoveProductfromMiniCart succesfully </t>
-  </si>
-  <si>
     <t>Delete Product</t>
   </si>
   <si>
@@ -448,15 +439,9 @@
     <t>Randomemailid</t>
   </si>
   <si>
-    <t>text verified: Akash sangal</t>
-  </si>
-  <si>
     <t>Add product successfully</t>
   </si>
   <si>
-    <t>Text Entered successfully: 6000</t>
-  </si>
-  <si>
     <t>Delete All Products</t>
   </si>
   <si>
@@ -469,9 +454,6 @@
     <t>User should able to add product</t>
   </si>
   <si>
-    <t xml:space="preserve">DeleteProductfromMiniCart succesfully </t>
-  </si>
-  <si>
     <t>userchandna5593954@mailinator.com</t>
   </si>
   <si>
@@ -502,10 +484,61 @@
     <t>verify minicart msg</t>
   </si>
   <si>
-    <t>text verified: You have no items in your shopping cart.</t>
-  </si>
-  <si>
-    <t>Text Entered successfully: Randomemailid</t>
+    <t>VerifyTitle: City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
+  </si>
+  <si>
+    <t>VerifyElement: null</t>
+  </si>
+  <si>
+    <t>Click: null</t>
+  </si>
+  <si>
+    <t>SetText: 123456</t>
+  </si>
+  <si>
+    <t>VerifyText: Akash sangal</t>
+  </si>
+  <si>
+    <t>MoveToProductList: Quick &amp; Easy Food Solutions</t>
+  </si>
+  <si>
+    <t>VerifyText: You have no items in your shopping cart.</t>
+  </si>
+  <si>
+    <t>VerifyNoElement: null</t>
+  </si>
+  <si>
+    <t>MoveAndAddProduct: null</t>
+  </si>
+  <si>
+    <t>VerifyMiniCart: You have no items in your shopping cart.</t>
+  </si>
+  <si>
+    <t>AddProductfromMiniCart: null</t>
+  </si>
+  <si>
+    <t>RemoveProductfromMiniCart: null</t>
+  </si>
+  <si>
+    <t>DeleteProductfromMiniCart: null</t>
+  </si>
+  <si>
+    <t>DeleteProductfromMiniCart: all</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>VerifyMiniCartMsg: You have no items in your shopping cart.</t>
+  </si>
+  <si>
+    <t>Wait: 6000</t>
+  </si>
+  <si>
+    <t>SetText: userchandna1261547@mailinator.com</t>
+  </si>
+  <si>
+    <t>SetText: Randomemailid</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1191,7 @@
         <v>72</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1206,12 +1239,12 @@
         <v>110</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>113</v>
@@ -1219,17 +1252,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1304,7 +1337,7 @@
         <v>18</v>
       </c>
     </row>
-    <row ht="180" r="2" spans="1:15">
+    <row ht="135" r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1320,7 +1353,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -1329,7 +1362,7 @@
         <v>35</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>114</v>
@@ -1368,7 +1401,7 @@
         <v>40</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>114</v>
@@ -1407,7 +1440,7 @@
         <v>42</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>114</v>
@@ -1446,7 +1479,7 @@
         <v>46</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>114</v>
@@ -1458,7 +1491,7 @@
         <v>36</v>
       </c>
     </row>
-    <row ht="120" r="6" spans="1:15">
+    <row ht="75" r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1478,20 +1511,20 @@
         <v>51</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
         <v>52</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>114</v>
@@ -1503,7 +1536,7 @@
         <v>36</v>
       </c>
     </row>
-    <row ht="60" r="7" spans="1:15">
+    <row ht="45" r="7" spans="1:15">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1532,7 +1565,7 @@
         <v>57</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>114</v>
@@ -1571,7 +1604,7 @@
         <v>61</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>114</v>
@@ -1600,7 +1633,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>65</v>
@@ -1612,7 +1645,7 @@
         <v>66</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>114</v>
@@ -1624,7 +1657,7 @@
         <v>36</v>
       </c>
     </row>
-    <row ht="180" r="10" spans="1:15">
+    <row ht="135" r="10" spans="1:15">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -1640,7 +1673,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1649,7 +1682,7 @@
         <v>35</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>114</v>
@@ -1688,7 +1721,7 @@
         <v>35</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>114</v>
@@ -1731,7 +1764,7 @@
         <v>35</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>114</v>
@@ -1770,7 +1803,7 @@
         <v>35</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>114</v>
@@ -1809,7 +1842,7 @@
         <v>35</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>114</v>
@@ -1821,7 +1854,7 @@
         <v>36</v>
       </c>
     </row>
-    <row ht="105" r="15" spans="1:15">
+    <row ht="90" r="15" spans="1:15">
       <c r="A15" s="4" t="s">
         <v>72</v>
       </c>
@@ -1862,7 +1895,7 @@
         <v>36</v>
       </c>
     </row>
-    <row ht="45" r="16" spans="1:15">
+    <row ht="30" r="16" spans="1:15">
       <c r="A16" s="4" t="s">
         <v>72</v>
       </c>
@@ -1889,7 +1922,7 @@
         <v>35</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>114</v>
@@ -1928,7 +1961,7 @@
         <v>35</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>114</v>
@@ -1971,7 +2004,7 @@
         <v>35</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>114</v>
@@ -2010,7 +2043,7 @@
         <v>35</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>114</v>
@@ -2049,7 +2082,7 @@
         <v>35</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>114</v>
@@ -2088,7 +2121,7 @@
         <v>35</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>114</v>
@@ -2127,7 +2160,7 @@
         <v>35</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>114</v>
@@ -2139,7 +2172,7 @@
         <v>36</v>
       </c>
     </row>
-    <row ht="45" r="23" spans="1:15">
+    <row ht="105" r="23" spans="1:15">
       <c r="A23" s="4" t="s">
         <v>93</v>
       </c>
@@ -2168,7 +2201,7 @@
         <v>35</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>114</v>
@@ -2180,7 +2213,7 @@
         <v>36</v>
       </c>
     </row>
-    <row ht="45" r="24" spans="1:15">
+    <row ht="30" r="24" spans="1:15">
       <c r="A24" s="4" t="s">
         <v>93</v>
       </c>
@@ -2207,7 +2240,7 @@
         <v>35</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>114</v>
@@ -2246,7 +2279,7 @@
         <v>35</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>114</v>
@@ -2285,7 +2318,7 @@
         <v>35</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>114</v>
@@ -2324,7 +2357,7 @@
         <v>35</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>114</v>
@@ -2336,7 +2369,7 @@
         <v>36</v>
       </c>
     </row>
-    <row ht="45" r="28" spans="1:15">
+    <row ht="30" r="28" spans="1:15">
       <c r="A28" s="4" t="s">
         <v>98</v>
       </c>
@@ -2363,7 +2396,7 @@
         <v>35</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>114</v>
@@ -2402,7 +2435,7 @@
         <v>35</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>114</v>
@@ -2441,7 +2474,7 @@
         <v>35</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>114</v>
@@ -2453,7 +2486,7 @@
         <v>36</v>
       </c>
     </row>
-    <row ht="60" r="31" spans="1:15">
+    <row ht="45" r="31" spans="1:15">
       <c r="A31" s="4" t="s">
         <v>101</v>
       </c>
@@ -2477,10 +2510,10 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>114</v>
@@ -2519,7 +2552,7 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>114</v>
@@ -2539,10 +2572,10 @@
         <v>43</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>50</v>
@@ -2556,7 +2589,7 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>114</v>
@@ -2576,10 +2609,10 @@
         <v>47</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>50</v>
@@ -2593,7 +2626,7 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>114</v>
@@ -2632,7 +2665,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="M35" s="8" t="s">
         <v>114</v>
@@ -2652,10 +2685,10 @@
         <v>27</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>50</v>
@@ -2669,7 +2702,7 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>114</v>
@@ -2708,7 +2741,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>114</v>
@@ -2728,10 +2761,10 @@
         <v>31</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>50</v>
@@ -2740,16 +2773,16 @@
         <v>96</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>114</v>
@@ -2761,7 +2794,7 @@
         <v>36</v>
       </c>
     </row>
-    <row ht="45" r="39" spans="1:15">
+    <row ht="30" r="39" spans="1:15">
       <c r="A39" s="4" t="s">
         <v>109</v>
       </c>
@@ -2788,7 +2821,7 @@
         <v>35</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>114</v>
@@ -2831,7 +2864,7 @@
         <v>35</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>114</v>
@@ -2870,7 +2903,7 @@
         <v>35</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>114</v>
@@ -2909,7 +2942,7 @@
         <v>35</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>114</v>
@@ -2929,10 +2962,10 @@
         <v>43</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>50</v>
@@ -2947,10 +2980,10 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>114</v>
@@ -2970,10 +3003,10 @@
         <v>47</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>50</v>
@@ -2982,16 +3015,16 @@
         <v>96</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="M44" s="8" t="s">
         <v>114</v>
@@ -3003,7 +3036,7 @@
         <v>36</v>
       </c>
     </row>
-    <row ht="45" r="45" spans="1:15">
+    <row ht="30" r="45" spans="1:15">
       <c r="A45" s="4" t="s">
         <v>110</v>
       </c>
@@ -3030,7 +3063,7 @@
         <v>35</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>114</v>
@@ -3042,15 +3075,15 @@
         <v>36</v>
       </c>
     </row>
-    <row ht="45" r="46" spans="1:15">
+    <row ht="30" r="46" spans="1:15">
       <c r="A46" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>28</v>
@@ -3059,17 +3092,17 @@
         <v>29</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>114</v>
@@ -3081,15 +3114,15 @@
         <v>36</v>
       </c>
     </row>
-    <row ht="45" r="47" spans="1:15">
+    <row ht="30" r="47" spans="1:15">
       <c r="A47" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>28</v>
@@ -3098,17 +3131,17 @@
         <v>29</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>114</v>
@@ -3120,30 +3153,30 @@
         <v>36</v>
       </c>
     </row>
-    <row ht="60" r="48" spans="1:15">
+    <row r="48" spans="1:15">
       <c r="A48" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>114</v>
@@ -3157,7 +3190,7 @@
     </row>
     <row ht="45" r="49" spans="1:15">
       <c r="A49" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>43</v>
@@ -3172,7 +3205,7 @@
         <v>29</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -3182,7 +3215,7 @@
         <v>40</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>114</v>
@@ -3289,7 +3322,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -3298,7 +3331,7 @@
         <v>35</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>114</v>
@@ -3447,20 +3480,20 @@
         <v>51</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
         <v>52</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>114</v>
@@ -3622,7 +3655,7 @@
         <v>35</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>114</v>
@@ -3681,10 +3714,10 @@
         <v>43</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>50</v>
@@ -3699,10 +3732,10 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>114</v>

--- a/lib_testcase/com.aislend.MiniCart.xlsx
+++ b/lib_testcase/com.aislend.MiniCart.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="212">
   <si>
     <t>Action</t>
   </si>
@@ -539,6 +539,419 @@
   </si>
   <si>
     <t>SetText: Randomemailid</t>
+  </si>
+  <si>
+    <t>action click failed</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'My Account')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 16 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 91c945a792718f57b1adc546c6b8d178
+*** Element info: {Using=xpath, value=//a[contains(text(),'My Account')]}</t>
+  </si>
+  <si>
+    <t>action set text failed: Randomemailid</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-email"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 15 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 91c945a792718f57b1adc546c6b8d178
+*** Element info: {Using=id, value=magestore-sociallogin-popup-email}</t>
+  </si>
+  <si>
+    <t>action set text failed: 123456</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-pass"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 26 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 91c945a792718f57b1adc546c6b8d178
+*** Element info: {Using=id, value=magestore-sociallogin-popup-pass}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-button-sociallogin"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 31 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 91c945a792718f57b1adc546c6b8d178
+*** Element info: {Using=id, value=magestore-button-sociallogin}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'My Account')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 10 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//a[contains(text(),'My Account')]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-email"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 18 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=id, value=magestore-sociallogin-popup-email}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-pass"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 14 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=id, value=magestore-sociallogin-popup-pass}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-button-sociallogin"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 14 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=id, value=magestore-button-sociallogin}</t>
+  </si>
+  <si>
+    <t>text not verified: Akash sangal</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //span[contains(text(),'Akash')] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d</t>
+  </si>
+  <si>
+    <t>action MoveToProductList failed: Quick &amp; Easy Food Solutions</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 15 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 15 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
+  </si>
+  <si>
+    <t>text not verified: You have no items in your shopping cart.</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //strong[normalize-space(@class) = 'subtitle empty'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 23 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=id, value=btn-minicart-close}</t>
+  </si>
+  <si>
+    <t>Element not verified</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 13 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 14 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
+  </si>
+  <si>
+    <t>action Move and add product failed: null</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 17 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 9 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 13 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 10 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 8 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=id, value=btn-minicart-close}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 19 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 10 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=id, value=btn-minicart-close}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 12 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 12 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
+  </si>
+  <si>
+    <t>action AddProductfromMiniCart failed: null  null</t>
+  </si>
+  <si>
+    <t>bound must be positive</t>
+  </si>
+  <si>
+    <t>action RemoveProductfromMiniCart failed: null  null</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 9 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=id, value=btn-minicart-close}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 9 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 12 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 7 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=id, value=btn-minicart-close}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[contains(text(),'Akash')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 8 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//span[contains(text(),'Akash')]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Sign Out')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 16 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+*** Element info: {Using=xpath, value=//a[contains(text(),'Sign Out')]}</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1778,7 @@
         <v>152</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>115</v>
@@ -1404,7 +1817,7 @@
         <v>153</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>115</v>
@@ -1440,13 +1853,13 @@
         <v>42</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>36</v>
@@ -1482,7 +1895,7 @@
         <v>153</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>115</v>
@@ -1524,13 +1937,13 @@
         <v>52</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -1565,13 +1978,13 @@
         <v>57</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>36</v>
@@ -1604,13 +2017,13 @@
         <v>61</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>36</v>
@@ -1645,13 +2058,13 @@
         <v>66</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>115</v>
+        <v>183</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>36</v>
@@ -1685,7 +2098,7 @@
         <v>152</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>115</v>
@@ -1724,7 +2137,7 @@
         <v>153</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>115</v>
@@ -1764,13 +2177,13 @@
         <v>35</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>36</v>
@@ -1803,13 +2216,13 @@
         <v>35</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>115</v>
+        <v>186</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>36</v>
@@ -1845,7 +2258,7 @@
         <v>153</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>115</v>
@@ -1883,13 +2296,13 @@
         <v>35</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>115</v>
+        <v>188</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>36</v>
@@ -1922,13 +2335,13 @@
         <v>35</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>36</v>
@@ -1961,13 +2374,13 @@
         <v>35</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>115</v>
+        <v>191</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>36</v>
@@ -2004,13 +2417,13 @@
         <v>35</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>36</v>
@@ -2043,13 +2456,13 @@
         <v>35</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>36</v>
@@ -2082,13 +2495,13 @@
         <v>35</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>36</v>
@@ -2121,13 +2534,13 @@
         <v>35</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>36</v>
@@ -2160,13 +2573,13 @@
         <v>35</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>115</v>
+        <v>197</v>
       </c>
       <c r="O22" s="4" t="s">
         <v>36</v>
@@ -2240,13 +2653,13 @@
         <v>35</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="O24" s="4" t="s">
         <v>36</v>
@@ -2279,13 +2692,13 @@
         <v>35</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="O25" s="4" t="s">
         <v>36</v>
@@ -2318,13 +2731,13 @@
         <v>35</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>115</v>
+        <v>186</v>
       </c>
       <c r="O26" s="4" t="s">
         <v>36</v>
@@ -2360,7 +2773,7 @@
         <v>153</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N27" s="4" t="s">
         <v>115</v>
@@ -2396,13 +2809,13 @@
         <v>35</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>115</v>
+        <v>200</v>
       </c>
       <c r="O28" s="4" t="s">
         <v>36</v>
@@ -2435,13 +2848,13 @@
         <v>35</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>115</v>
+        <v>201</v>
       </c>
       <c r="O29" s="4" t="s">
         <v>36</v>
@@ -2474,13 +2887,13 @@
         <v>35</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>115</v>
+        <v>202</v>
       </c>
       <c r="O30" s="4" t="s">
         <v>36</v>
@@ -2513,13 +2926,13 @@
         <v>141</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>115</v>
+        <v>204</v>
       </c>
       <c r="O31" s="4" t="s">
         <v>36</v>
@@ -2589,13 +3002,13 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>115</v>
+        <v>204</v>
       </c>
       <c r="O33" s="4" t="s">
         <v>36</v>
@@ -2626,13 +3039,13 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>115</v>
+        <v>204</v>
       </c>
       <c r="O34" s="4" t="s">
         <v>36</v>
@@ -2821,13 +3234,13 @@
         <v>35</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>115</v>
+        <v>206</v>
       </c>
       <c r="O39" s="4" t="s">
         <v>36</v>
@@ -2864,13 +3277,13 @@
         <v>35</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="O40" s="4" t="s">
         <v>36</v>
@@ -2903,13 +3316,13 @@
         <v>35</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>115</v>
+        <v>208</v>
       </c>
       <c r="O41" s="4" t="s">
         <v>36</v>
@@ -2942,13 +3355,13 @@
         <v>35</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>115</v>
+        <v>197</v>
       </c>
       <c r="O42" s="4" t="s">
         <v>36</v>
@@ -2986,7 +3399,7 @@
         <v>167</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N43" s="4" t="s">
         <v>115</v>
@@ -3063,13 +3476,13 @@
         <v>35</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>115</v>
+        <v>209</v>
       </c>
       <c r="O45" s="4" t="s">
         <v>36</v>
@@ -3102,13 +3515,13 @@
         <v>127</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="O46" s="4" t="s">
         <v>36</v>
@@ -3141,13 +3554,13 @@
         <v>130</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>115</v>
+        <v>211</v>
       </c>
       <c r="O47" s="4" t="s">
         <v>36</v>
@@ -3218,7 +3631,7 @@
         <v>153</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="N49" s="4" t="s">
         <v>115</v>

--- a/lib_testcase/com.aislend.MiniCart.xlsx
+++ b/lib_testcase/com.aislend.MiniCart.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="208">
   <si>
     <t>Action</t>
   </si>
@@ -535,10 +535,29 @@
     <t>Wait: 6000</t>
   </si>
   <si>
-    <t>SetText: userchandna1261547@mailinator.com</t>
-  </si>
-  <si>
     <t>SetText: Randomemailid</t>
+  </si>
+  <si>
+    <t>userchandna4016731@mailinator.com</t>
+  </si>
+  <si>
+    <t>SetText: userchandna4016731@mailinator.com</t>
+  </si>
+  <si>
+    <t>action Move and add product failed: null</t>
+  </si>
+  <si>
+    <t>stale element reference: element is not attached to the page document
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 6.42 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/stale_element_reference.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir11364_20996}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 22ded5a2732a925b288d20c555b63cab
+*** Element info: {Using=xpath, value=.//div[normalize-space(@class) = 'product-item-info product__card']}</t>
   </si>
   <si>
     <t>action click failed</t>
@@ -547,20 +566,113 @@
     <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'My Account')]"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 16 milliseconds
+Command duration or timeout: 12 milliseconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 91c945a792718f57b1adc546c6b8d178
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
 *** Element info: {Using=xpath, value=//a[contains(text(),'My Account')]}</t>
   </si>
   <si>
-    <t>action set text failed: Randomemailid</t>
+    <t>action set text failed: userchandna4016731@mailinator.com</t>
   </si>
   <si>
     <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-email"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 35 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=id, value=magestore-sociallogin-popup-email}</t>
+  </si>
+  <si>
+    <t>action set text failed: 123456</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-pass"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 24 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=id, value=magestore-sociallogin-popup-pass}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-button-sociallogin"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 25 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=id, value=magestore-button-sociallogin}</t>
+  </si>
+  <si>
+    <t>text not verified: Akash sangal</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //span[contains(text(),'Akash')] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
+  </si>
+  <si>
+    <t>action MoveToProductList failed: Quick &amp; Easy Food Solutions</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 17 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 19 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
+  </si>
+  <si>
+    <t>text not verified: You have no items in your shopping cart.</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //strong[normalize-space(@class) = 'subtitle empty'] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
 Command duration or timeout: 15 milliseconds
@@ -568,104 +680,25 @@
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 91c945a792718f57b1adc546c6b8d178
-*** Element info: {Using=id, value=magestore-sociallogin-popup-email}</t>
-  </si>
-  <si>
-    <t>action set text failed: 123456</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-pass"}
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=id, value=btn-minicart-close}</t>
+  </si>
+  <si>
+    <t>Element not verified</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 26 milliseconds
+Command duration or timeout: 40 milliseconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 91c945a792718f57b1adc546c6b8d178
-*** Element info: {Using=id, value=magestore-sociallogin-popup-pass}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-button-sociallogin"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 31 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir4916_13851}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 91c945a792718f57b1adc546c6b8d178
-*** Element info: {Using=id, value=magestore-button-sociallogin}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'My Account')]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 10 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//a[contains(text(),'My Account')]}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-email"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 18 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=id, value=magestore-sociallogin-popup-email}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-pass"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 14 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=id, value=magestore-sociallogin-popup-pass}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-button-sociallogin"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 14 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=id, value=magestore-button-sociallogin}</t>
-  </si>
-  <si>
-    <t>text not verified: Akash sangal</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //span[contains(text(),'Akash')] (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d</t>
-  </si>
-  <si>
-    <t>action MoveToProductList failed: Quick &amp; Easy Food Solutions</t>
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']}</t>
   </si>
   <si>
     <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
@@ -676,9 +709,48 @@
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
 *** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 33 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 45 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 41 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
   </si>
   <si>
     <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
@@ -689,52 +761,38 @@
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
 *** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
-  </si>
-  <si>
-    <t>text not verified: You have no items in your shopping cart.</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //strong[normalize-space(@class) = 'subtitle empty'] (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d</t>
   </si>
   <si>
     <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 23 milliseconds
+Command duration or timeout: 20 milliseconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
 *** Element info: {Using=id, value=btn-minicart-close}</t>
-  </si>
-  <si>
-    <t>Element not verified</t>
   </si>
   <si>
     <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 13 milliseconds
+Command duration or timeout: 42 milliseconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
 *** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']}</t>
   </si>
   <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
+    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
 Command duration or timeout: 14 milliseconds
@@ -742,15 +800,12 @@
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
-  </si>
-  <si>
-    <t>action Move and add product failed: null</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=id, value=btn-minicart-close}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
 Command duration or timeout: 17 milliseconds
@@ -758,115 +813,11 @@
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 9 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 13 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 10 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
 *** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
   </si>
   <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 8 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=id, value=btn-minicart-close}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 19 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 10 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=id, value=btn-minicart-close}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 12 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 12 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
-  </si>
-  <si>
     <t>action AddProductfromMiniCart failed: null  null</t>
   </si>
   <si>
@@ -876,72 +827,7 @@
     <t>action RemoveProductfromMiniCart failed: null  null</t>
   </si>
   <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 9 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=id, value=btn-minicart-close}</t>
-  </si>
-  <si>
     <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 9 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 12 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 7 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=id, value=btn-minicart-close}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[contains(text(),'Akash')]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 8 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
-*** Element info: {Using=xpath, value=//span[contains(text(),'Akash')]}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Sign Out')]"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
 Command duration or timeout: 16 milliseconds
@@ -949,8 +835,60 @@
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir17096_21656}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 0f370b59264a5c9c3e552ca3b87e2a7d
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 37 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 18 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[contains(text(),'Akash')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 16 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
+*** Element info: {Using=xpath, value=//span[contains(text(),'Akash')]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Sign Out')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 18 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 61816d28be1bbd78b3d2429a87a9572e
 *** Element info: {Using=xpath, value=//a[contains(text(),'Sign Out')]}</t>
   </si>
 </sst>
@@ -1117,7 +1055,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1172,6 +1110,9 @@
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1665,17 +1606,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1685,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1778,7 +1719,7 @@
         <v>152</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>115</v>
@@ -1817,7 +1758,7 @@
         <v>153</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>115</v>
@@ -1853,13 +1794,13 @@
         <v>42</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>178</v>
+        <v>115</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>36</v>
@@ -1895,7 +1836,7 @@
         <v>153</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>115</v>
@@ -1904,7 +1845,7 @@
         <v>36</v>
       </c>
     </row>
-    <row ht="75" r="6" spans="1:15">
+    <row ht="45" r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1923,8 +1864,8 @@
       <c r="F6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>136</v>
+      <c r="G6" s="21" t="s">
+        <v>170</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>135</v>
@@ -1937,13 +1878,13 @@
         <v>52</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>36</v>
@@ -1978,13 +1919,13 @@
         <v>57</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>36</v>
@@ -2017,13 +1958,13 @@
         <v>61</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>36</v>
@@ -2058,13 +1999,13 @@
         <v>66</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>36</v>
@@ -2098,7 +2039,7 @@
         <v>152</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>115</v>
@@ -2137,7 +2078,7 @@
         <v>153</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>115</v>
@@ -2177,13 +2118,13 @@
         <v>35</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>36</v>
@@ -2216,13 +2157,13 @@
         <v>35</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>186</v>
+        <v>115</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>36</v>
@@ -2258,7 +2199,7 @@
         <v>153</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>115</v>
@@ -2296,13 +2237,13 @@
         <v>35</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>188</v>
+        <v>115</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>36</v>
@@ -2335,13 +2276,13 @@
         <v>35</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>36</v>
@@ -2374,13 +2315,13 @@
         <v>35</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>36</v>
@@ -2417,13 +2358,13 @@
         <v>35</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>36</v>
@@ -2456,13 +2397,13 @@
         <v>35</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>194</v>
+        <v>115</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>36</v>
@@ -2495,13 +2436,13 @@
         <v>35</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>195</v>
+        <v>115</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>36</v>
@@ -2534,13 +2475,13 @@
         <v>35</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>36</v>
@@ -2573,13 +2514,13 @@
         <v>35</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>197</v>
+        <v>115</v>
       </c>
       <c r="O22" s="4" t="s">
         <v>36</v>
@@ -2653,13 +2594,13 @@
         <v>35</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>198</v>
+        <v>115</v>
       </c>
       <c r="O24" s="4" t="s">
         <v>36</v>
@@ -2692,13 +2633,13 @@
         <v>35</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>199</v>
+        <v>115</v>
       </c>
       <c r="O25" s="4" t="s">
         <v>36</v>
@@ -2731,13 +2672,13 @@
         <v>35</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>186</v>
+        <v>115</v>
       </c>
       <c r="O26" s="4" t="s">
         <v>36</v>
@@ -2773,7 +2714,7 @@
         <v>153</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N27" s="4" t="s">
         <v>115</v>
@@ -2809,13 +2750,13 @@
         <v>35</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="O28" s="4" t="s">
         <v>36</v>
@@ -2848,13 +2789,13 @@
         <v>35</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>201</v>
+        <v>115</v>
       </c>
       <c r="O29" s="4" t="s">
         <v>36</v>
@@ -2887,13 +2828,13 @@
         <v>35</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>202</v>
+        <v>115</v>
       </c>
       <c r="O30" s="4" t="s">
         <v>36</v>
@@ -2926,13 +2867,13 @@
         <v>141</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="O31" s="4" t="s">
         <v>36</v>
@@ -3002,13 +2943,13 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="O33" s="4" t="s">
         <v>36</v>
@@ -3039,13 +2980,13 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="O34" s="4" t="s">
         <v>36</v>
@@ -3234,13 +3175,13 @@
         <v>35</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>206</v>
+        <v>115</v>
       </c>
       <c r="O39" s="4" t="s">
         <v>36</v>
@@ -3277,13 +3218,13 @@
         <v>35</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>207</v>
+        <v>115</v>
       </c>
       <c r="O40" s="4" t="s">
         <v>36</v>
@@ -3316,13 +3257,13 @@
         <v>35</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>208</v>
+        <v>115</v>
       </c>
       <c r="O41" s="4" t="s">
         <v>36</v>
@@ -3355,13 +3296,13 @@
         <v>35</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>197</v>
+        <v>115</v>
       </c>
       <c r="O42" s="4" t="s">
         <v>36</v>
@@ -3399,7 +3340,7 @@
         <v>167</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N43" s="4" t="s">
         <v>115</v>
@@ -3476,13 +3417,13 @@
         <v>35</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>209</v>
+        <v>115</v>
       </c>
       <c r="O45" s="4" t="s">
         <v>36</v>
@@ -3515,13 +3456,13 @@
         <v>127</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="O46" s="4" t="s">
         <v>36</v>
@@ -3554,13 +3495,13 @@
         <v>130</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="O47" s="4" t="s">
         <v>36</v>
@@ -3631,7 +3572,7 @@
         <v>153</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="N49" s="4" t="s">
         <v>115</v>
@@ -3644,9 +3585,10 @@
   <hyperlinks>
     <hyperlink display="http://staging.aislend.com/" r:id="rId1" ref="E3"/>
     <hyperlink r:id="rId2" ref="H6"/>
+    <hyperlink r:id="rId3" ref="G6"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/lib_testcase/com.aislend.MiniCart.xlsx
+++ b/lib_testcase/com.aislend.MiniCart.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="191">
   <si>
     <t>Action</t>
   </si>
@@ -502,62 +502,40 @@
     <t>MoveToProductList: Quick &amp; Easy Food Solutions</t>
   </si>
   <si>
+    <t>VerifyNoElement: null</t>
+  </si>
+  <si>
+    <t>MoveAndAddProduct: null</t>
+  </si>
+  <si>
+    <t>VerifyMiniCart: You have no items in your shopping cart.</t>
+  </si>
+  <si>
+    <t>AddProductfromMiniCart: null</t>
+  </si>
+  <si>
+    <t>RemoveProductfromMiniCart: null</t>
+  </si>
+  <si>
+    <t>DeleteProductfromMiniCart: null</t>
+  </si>
+  <si>
+    <t>DeleteProductfromMiniCart: all</t>
+  </si>
+  <si>
+    <t>VerifyMiniCartMsg: You have no items in your shopping cart.</t>
+  </si>
+  <si>
+    <t>Wait: 6000</t>
+  </si>
+  <si>
     <t>VerifyText: You have no items in your shopping cart.</t>
   </si>
   <si>
-    <t>VerifyNoElement: null</t>
-  </si>
-  <si>
-    <t>MoveAndAddProduct: null</t>
-  </si>
-  <si>
-    <t>VerifyMiniCart: You have no items in your shopping cart.</t>
-  </si>
-  <si>
-    <t>AddProductfromMiniCart: null</t>
-  </si>
-  <si>
-    <t>RemoveProductfromMiniCart: null</t>
-  </si>
-  <si>
-    <t>DeleteProductfromMiniCart: null</t>
-  </si>
-  <si>
-    <t>DeleteProductfromMiniCart: all</t>
+    <t>SetText: userchandna7049580@mailinator.com</t>
   </si>
   <si>
     <t>Fail</t>
-  </si>
-  <si>
-    <t>VerifyMiniCartMsg: You have no items in your shopping cart.</t>
-  </si>
-  <si>
-    <t>Wait: 6000</t>
-  </si>
-  <si>
-    <t>SetText: Randomemailid</t>
-  </si>
-  <si>
-    <t>userchandna4016731@mailinator.com</t>
-  </si>
-  <si>
-    <t>SetText: userchandna4016731@mailinator.com</t>
-  </si>
-  <si>
-    <t>action Move and add product failed: null</t>
-  </si>
-  <si>
-    <t>stale element reference: element is not attached to the page document
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 6.42 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/stale_element_reference.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir11364_20996}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 22ded5a2732a925b288d20c555b63cab
-*** Element info: {Using=xpath, value=.//div[normalize-space(@class) = 'product-item-info product__card']}</t>
   </si>
   <si>
     <t>action click failed</t>
@@ -571,24 +549,24 @@
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
 *** Element info: {Using=xpath, value=//a[contains(text(),'My Account')]}</t>
   </si>
   <si>
-    <t>action set text failed: userchandna4016731@mailinator.com</t>
+    <t>action set text failed: Randomemailid</t>
   </si>
   <si>
     <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-email"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 35 milliseconds
+Command duration or timeout: 27 milliseconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
 *** Element info: {Using=id, value=magestore-sociallogin-popup-email}</t>
   </si>
   <si>
@@ -598,44 +576,117 @@
     <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-pass"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 24 milliseconds
+Command duration or timeout: 16 milliseconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
 *** Element info: {Using=id, value=magestore-sociallogin-popup-pass}</t>
   </si>
   <si>
     <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-button-sociallogin"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 25 milliseconds
+Command duration or timeout: 23 milliseconds
 For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
 *** Element info: {Using=id, value=magestore-button-sociallogin}</t>
   </si>
   <si>
-    <t>text not verified: Akash sangal</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //span[contains(text(),'Akash')] (tried for 40 second(s) with 500 MILLISECONDS interval)
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 20 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
-  </si>
-  <si>
-    <t>action MoveToProductList failed: Quick &amp; Easy Food Solutions</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir7996_31503}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: cab2a1f1991a60d3a454d88e5871f3ca
+*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
+  </si>
+  <si>
+    <t>SetText: Randomemailid</t>
+  </si>
+  <si>
+    <t>action Move and add product failed: null</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 20 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir19264_27720}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 51b547a09bf804211694a94802a1d480
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 11 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir19264_27720}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 51b547a09bf804211694a94802a1d480
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 13 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir19264_27720}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 51b547a09bf804211694a94802a1d480
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 23 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir19264_27720}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 51b547a09bf804211694a94802a1d480
+*** Element info: {Using=id, value=btn-minicart-close}</t>
+  </si>
+  <si>
+    <t>Element not verified</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 18 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir19264_27720}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 51b547a09bf804211694a94802a1d480
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
 Command duration or timeout: 17 milliseconds
@@ -643,12 +694,12 @@
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir19264_27720}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 51b547a09bf804211694a94802a1d480
+*** Element info: {Using=id, value=btn-minicart-close}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
 Command duration or timeout: 19 milliseconds
@@ -656,168 +707,11 @@
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
-  </si>
-  <si>
-    <t>text not verified: You have no items in your shopping cart.</t>
-  </si>
-  <si>
-    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //strong[normalize-space(@class) = 'subtitle empty'] (tried for 40 second(s) with 500 MILLISECONDS interval)
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 15 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=id, value=btn-minicart-close}</t>
-  </si>
-  <si>
-    <t>Element not verified</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 40 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir19264_27720}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: 51b547a09bf804211694a94802a1d480
 *** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']}</t>
   </si>
   <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 15 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 33 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 45 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 41 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 15 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=id, value=btn-minicart-close}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 42 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"id","selector":"btn-minicart-close"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 14 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=id, value=btn-minicart-close}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 17 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
-  </si>
-  <si>
     <t>action AddProductfromMiniCart failed: null  null</t>
   </si>
   <si>
@@ -825,71 +719,6 @@
   </si>
   <si>
     <t>action RemoveProductfromMiniCart failed: null  null</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 16 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 37 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[normalize-space(@class) = 'action showcart icon icon-main-cart']"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 18 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//a[normalize-space(@class) = 'action showcart icon icon-main-cart']}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[contains(text(),'Akash')]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 16 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//span[contains(text(),'Akash')]}</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Sign Out')]"}
-  (Session info: chrome=68.0.3440.106)
-  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 18 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
-System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir12644_3729}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 61816d28be1bbd78b3d2429a87a9572e
-*** Element info: {Using=xpath, value=//a[contains(text(),'Sign Out')]}</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +884,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1110,9 +939,6 @@
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1606,17 +1432,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1626,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1845,7 +1671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row ht="45" r="6" spans="1:15">
+    <row ht="75" r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1864,8 +1690,8 @@
       <c r="F6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="21" t="s">
-        <v>170</v>
+      <c r="G6" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>135</v>
@@ -1878,7 +1704,7 @@
         <v>52</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>114</v>
@@ -2237,7 +2063,7 @@
         <v>35</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>114</v>
@@ -2315,7 +2141,7 @@
         <v>35</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>114</v>
@@ -2397,7 +2223,7 @@
         <v>35</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>114</v>
@@ -2436,7 +2262,7 @@
         <v>35</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>114</v>
@@ -2475,7 +2301,7 @@
         <v>35</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>114</v>
@@ -2555,7 +2381,7 @@
         <v>35</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>114</v>
@@ -2633,7 +2459,7 @@
         <v>35</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>114</v>
@@ -2789,7 +2615,7 @@
         <v>35</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>114</v>
@@ -2867,7 +2693,7 @@
         <v>141</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>114</v>
@@ -2906,7 +2732,7 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>114</v>
@@ -2943,7 +2769,7 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>114</v>
@@ -2980,7 +2806,7 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>114</v>
@@ -3019,7 +2845,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M35" s="8" t="s">
         <v>114</v>
@@ -3056,7 +2882,7 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>114</v>
@@ -3095,7 +2921,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>114</v>
@@ -3136,7 +2962,7 @@
         <v>140</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>114</v>
@@ -3257,7 +3083,7 @@
         <v>35</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>114</v>
@@ -3337,10 +3163,10 @@
         <v>148</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>114</v>
+        <v>169</v>
       </c>
       <c r="N43" s="4" t="s">
         <v>115</v>
@@ -3378,7 +3204,7 @@
         <v>140</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M44" s="8" t="s">
         <v>114</v>
@@ -3530,7 +3356,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>114</v>
@@ -3585,10 +3411,9 @@
   <hyperlinks>
     <hyperlink display="http://staging.aislend.com/" r:id="rId1" ref="E3"/>
     <hyperlink r:id="rId2" ref="H6"/>
-    <hyperlink r:id="rId3" ref="G6"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/lib_testcase/com.aislend.MiniCart.xlsx
+++ b/lib_testcase/com.aislend.MiniCart.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="191">
   <si>
     <t>Action</t>
   </si>
@@ -2885,7 +2885,7 @@
         <v>163</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>114</v>
+        <v>169</v>
       </c>
       <c r="N36" s="8" t="s">
         <v>115</v>
@@ -3166,7 +3166,7 @@
         <v>165</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="N43" s="4" t="s">
         <v>115</v>

--- a/lib_testcase/com.aislend.MiniCart.xlsx
+++ b/lib_testcase/com.aislend.MiniCart.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="191">
   <si>
     <t>Action</t>
   </si>
@@ -2885,7 +2885,7 @@
         <v>163</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="N36" s="8" t="s">
         <v>115</v>

--- a/lib_testcase/com.aislend.MiniCart.xlsx
+++ b/lib_testcase/com.aislend.MiniCart.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="195">
   <si>
     <t>Action</t>
   </si>
@@ -719,6 +719,56 @@
   </si>
   <si>
     <t>action RemoveProductfromMiniCart failed: null  null</t>
+  </si>
+  <si>
+    <t>element not visible
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 22 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13772_30562}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: d9b43bc53cf86967166b7f272ed4684c</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-email"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 24 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13772_30562}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: d9b43bc53cf86967166b7f272ed4684c
+*** Element info: {Using=id, value=magestore-sociallogin-popup-email}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-sociallogin-popup-pass"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 17 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13772_30562}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: d9b43bc53cf86967166b7f272ed4684c
+*** Element info: {Using=id, value=magestore-sociallogin-popup-pass}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-button-sociallogin"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 20 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13772_30562}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: d9b43bc53cf86967166b7f272ed4684c
+*** Element info: {Using=id, value=magestore-button-sociallogin}</t>
   </si>
 </sst>
 </file>

--- a/lib_testcase/com.aislend.MiniCart.xlsx
+++ b/lib_testcase/com.aislend.MiniCart.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="195">
   <si>
     <t>Action</t>
   </si>

--- a/lib_testcase/com.aislend.MiniCart.xlsx
+++ b/lib_testcase/com.aislend.MiniCart.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3172" uniqueCount="208">
   <si>
     <t>Action</t>
   </si>
@@ -769,6 +769,140 @@
 Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13772_30562}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
 Session ID: d9b43bc53cf86967166b7f272ed4684c
 *** Element info: {Using=id, value=magestore-button-sociallogin}</t>
+  </si>
+  <si>
+    <t>timeout
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 300.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac</t>
+  </si>
+  <si>
+    <t>text not verified: You have no items in your shopping cart.</t>
+  </si>
+  <si>
+    <t>timeout
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 300.03 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//strong[normalize-space(@class) = 'subtitle empty']}</t>
+  </si>
+  <si>
+    <t>timeout
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 300.00 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac</t>
+  </si>
+  <si>
+    <t>timeout
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 300.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']}</t>
+  </si>
+  <si>
+    <t>action MoveToProductList failed: Quick &amp; Easy Food Solutions</t>
+  </si>
+  <si>
+    <t>timeout
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 300.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
+  </si>
+  <si>
+    <t>timeout
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 300.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'block block-minicart empty ui-dialog-content ui-widget-content']}</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.02 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//ul[normalize-space(@class) = 'nav-primary mmenu__parent-list']}</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 4.01 seconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir16620_1251}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: ace228861dfe96894b86fa0cdf2c39ac
+*** Element info: {Using=xpath, value=//div[normalize-space(@class) = 'products wrapper cp__products-wrapper grid products-grid']}</t>
   </si>
 </sst>
 </file>
